--- a/CURSOS/DSA/PROJETOS/Cap04/Produtos.xlsx
+++ b/CURSOS/DSA/PROJETOS/Cap04/Produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmpm/Dropbox/DSA/PowerBI-DataScience2/Cap04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps_cu\Documents\DATA\Data-Analysis\CURSOS\DSA\PROJETOS\Cap04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91385C-4D75-8A4F-BFF9-CF1946A16096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41543104-F89C-4E32-A384-E464DAB56EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2840" windowWidth="27660" windowHeight="14240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo Produto" sheetId="5" r:id="rId1"/>
@@ -142,12 +142,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,16 +428,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="122" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -461,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -469,7 +470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -487,18 +488,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,7 +521,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,7 +532,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +543,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -553,7 +554,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -564,7 +565,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,7 +576,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +587,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,18 +608,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="122" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +641,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -651,7 +652,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -662,7 +663,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +674,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +685,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -695,7 +696,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +707,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
